--- a/Diccionaro de datos/TablasModelo1.xlsx
+++ b/Diccionaro de datos/TablasModelo1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\Diccionaro de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCP-SQL\Diccionaro de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A0F75D-EE1F-490D-8594-1F024D0CE376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C088D84B-51D2-4BEA-A809-938432788FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B398059C-515C-4B45-B62B-999B42A7C199}"/>
   </bookViews>
   <sheets>
-    <sheet name="MIEMBRO" sheetId="1" r:id="rId1"/>
+    <sheet name="TEAM_MEMBER" sheetId="1" r:id="rId1"/>
     <sheet name="APLICACION" sheetId="2" r:id="rId2"/>
     <sheet name="APP_MIEMBRO" sheetId="3" r:id="rId3"/>
     <sheet name="CAL" sheetId="4" r:id="rId4"/>
@@ -196,9 +196,6 @@
     <t>PORCASIGNADO</t>
   </si>
   <si>
-    <t>TIPPREPER</t>
-  </si>
-  <si>
     <t>EMPRESA</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>IDSQUAD</t>
+  </si>
+  <si>
+    <t>TIPOPROVEEDOR</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="18">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -721,7 +721,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -841,12 +841,12 @@
         <v>10</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -860,12 +860,12 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -879,7 +879,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1267,7 +1267,7 @@
   <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1298,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -1425,7 +1425,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18">
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -1662,7 +1662,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1688,7 +1688,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1729,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1918,7 +1918,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -2104,7 +2104,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="18">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2130,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>1</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -2171,7 +2171,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2190,7 +2190,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:8">
